--- a/prin_econ/prin_econ_2/hw3/plot.xlsx
+++ b/prin_econ/prin_econ_2/hw3/plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\finance\prin_econ\prin_econ_2\hw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6FF70B-704E-48BA-9D2C-4DD85F2C0901}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3938F7-8490-4DB3-BFCF-0F19E53A8958}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{4E169C0D-DF73-40FE-B3F3-B5520EBCB85D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Export</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>Capital Account</t>
+  </si>
+  <si>
+    <t>Gross National Saving</t>
+  </si>
+  <si>
+    <t>Gross National Investment</t>
+  </si>
+  <si>
+    <t>Excess Savings</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Trade Surplus</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -190,7 +208,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -259,7 +277,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -373,7 +391,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -442,7 +460,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:f>Sheet1!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -513,6 +531,189 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BCE6-4FD2-B699-8425A6B58346}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trade Surplus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>577332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>715484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>725270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>406897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>468385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>635971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>842320</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>433349</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>929696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>683785</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>733663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>851742</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>994723</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1160560</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1525041</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1611262</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1771362</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1481966</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1346537</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1750280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6806-4168-AD9D-6D719AC5C0BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1525,6 +1726,195 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9689-460A-AB4E-0D3D7E385766}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1728,6 +2118,1571 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gross National Saving</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3005394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2615801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2909461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3179723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3356172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3406311</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3672755</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4082293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3667959</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3766608</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4527041</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4395856</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4599678</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4994236</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5602538</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6221598</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6339620</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6619639</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6525812</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6768288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8072468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1437-4BB2-A553-7E933E8525DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gross National Investment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3394150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2696826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2740185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2850858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3333722</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3372419</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3437619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3459059</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3241892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2609718</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3538043</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3325175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3267488</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3427131</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3639428</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3732628</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3797566</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3768727</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4030119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4286996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4514371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1437-4BB2-A553-7E933E8525DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Excess Savings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-388756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-81025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>235136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>623234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>426067</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1156890</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>988998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1070681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1332190</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1567105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1963110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2488970</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2542054</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2850912</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2495693</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2481292</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3558097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1437-4BB2-A553-7E933E8525DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1980454751"/>
+        <c:axId val="51789695"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1980454751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51789695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51789695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1980454751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trade Surplus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>577332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>715484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>725270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>406897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>468385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>635971</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>842320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>433349</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>929696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>683785</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>733663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>851742</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>994723</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1160560</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1525041</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1611262</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1771362</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1481966</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1346537</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1750280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1160-49BD-B34A-EA59EE9067E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Excess Savings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-388756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-81025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>235136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>623234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>426067</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1156890</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>988998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1070681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1332190</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1567105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1963110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2488970</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2542054</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2850912</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2495693</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2481292</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3558097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1160-49BD-B34A-EA59EE9067E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Current Account</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24794</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40662</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36726</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37914</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42925</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49937</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60607</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72730</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71222</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83053</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70843</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65161</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1160-49BD-B34A-EA59EE9067E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2036898895"/>
+        <c:axId val="1884342431"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2036898895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1884342431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1884342431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2036898895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1808,6 +3763,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2312,6 +4347,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2883,6 +5924,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558727</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25327</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>175438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E337CE5F-B8C2-4DC6-9E7F-E67C2841F84B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>328707</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>116292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19923</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>58022</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271B54F1-0F90-4E52-ABE3-9D69FB36EBFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3188,25 +6301,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F272BF-31EA-4F37-BE8F-89920861494F}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="62" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="15.08984375" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="17" max="17" width="18.7265625" customWidth="1"/>
+    <col min="18" max="18" width="23.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
@@ -3219,16 +6341,25 @@
       <c r="L1" t="s">
         <v>6</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2001</v>
-      </c>
-      <c r="B2">
-        <v>4270574</v>
-      </c>
-      <c r="C2">
-        <v>3693242</v>
+        <v>2000</v>
       </c>
       <c r="H2">
         <v>2000</v>
@@ -3245,16 +6376,39 @@
       <c r="L2" t="s">
         <v>5</v>
       </c>
+      <c r="M2">
+        <v>2228</v>
+      </c>
+      <c r="N2" t="e">
+        <f>I2+L2-J2-K2+M2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P2">
+        <v>2000</v>
+      </c>
+      <c r="Q2">
+        <v>3005394</v>
+      </c>
+      <c r="R2">
+        <v>3394150</v>
+      </c>
+      <c r="S2">
+        <v>-388756</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B3">
-        <v>4692830</v>
+        <v>4270574</v>
       </c>
       <c r="C3">
-        <v>3977346</v>
+        <v>3693242</v>
+      </c>
+      <c r="D3">
+        <f>B3-C3</f>
+        <v>577332</v>
       </c>
       <c r="H3">
         <v>2001</v>
@@ -3271,16 +6425,39 @@
       <c r="L3">
         <v>-41</v>
       </c>
+      <c r="M3">
+        <v>4612</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N22" si="0">I3+L3-J3-K3+M3</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2001</v>
+      </c>
+      <c r="Q3">
+        <v>2615801</v>
+      </c>
+      <c r="R3">
+        <v>2696826</v>
+      </c>
+      <c r="S3">
+        <v>-81025</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B4">
-        <v>5205742</v>
+        <v>4692830</v>
       </c>
       <c r="C4">
-        <v>4480472</v>
+        <v>3977346</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D22" si="1">B4-C4</f>
+        <v>715484</v>
       </c>
       <c r="H4">
         <v>2002</v>
@@ -3297,16 +6474,39 @@
       <c r="L4">
         <v>-43</v>
       </c>
+      <c r="M4">
+        <v>5817</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>2002</v>
+      </c>
+      <c r="Q4">
+        <v>2909461</v>
+      </c>
+      <c r="R4">
+        <v>2740185</v>
+      </c>
+      <c r="S4">
+        <v>169276</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B5">
-        <v>6148515</v>
+        <v>5205742</v>
       </c>
       <c r="C5">
-        <v>5741618</v>
+        <v>4480472</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>725270</v>
       </c>
       <c r="H5">
         <v>2003</v>
@@ -3323,16 +6523,39 @@
       <c r="L5">
         <v>-18</v>
       </c>
+      <c r="M5">
+        <v>1114</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2003</v>
+      </c>
+      <c r="Q5">
+        <v>3179723</v>
+      </c>
+      <c r="R5">
+        <v>2850858</v>
+      </c>
+      <c r="S5">
+        <v>328865</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B6">
-        <v>6426903</v>
+        <v>6148515</v>
       </c>
       <c r="C6">
-        <v>5958518</v>
+        <v>5741618</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>406897</v>
       </c>
       <c r="H6">
         <v>2004</v>
@@ -3349,16 +6572,39 @@
       <c r="L6">
         <v>-2</v>
       </c>
+      <c r="M6">
+        <v>3647</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>2004</v>
+      </c>
+      <c r="Q6">
+        <v>3356172</v>
+      </c>
+      <c r="R6">
+        <v>3333722</v>
+      </c>
+      <c r="S6">
+        <v>22450</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B7">
-        <v>7351935</v>
+        <v>6426903</v>
       </c>
       <c r="C7">
-        <v>6715964</v>
+        <v>5958518</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>468385</v>
       </c>
       <c r="H7">
         <v>2005</v>
@@ -3375,16 +6621,39 @@
       <c r="L7">
         <v>-46</v>
       </c>
+      <c r="M7">
+        <v>5803</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>2005</v>
+      </c>
+      <c r="Q7">
+        <v>3406311</v>
+      </c>
+      <c r="R7">
+        <v>3372419</v>
+      </c>
+      <c r="S7">
+        <v>33892</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B8">
-        <v>8165709</v>
+        <v>7351935</v>
       </c>
       <c r="C8">
-        <v>7323389</v>
+        <v>6715964</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>635971</v>
       </c>
       <c r="H8">
         <v>2006</v>
@@ -3401,16 +6670,39 @@
       <c r="L8">
         <v>-63</v>
       </c>
+      <c r="M8">
+        <v>2593</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>2006</v>
+      </c>
+      <c r="Q8">
+        <v>3672755</v>
+      </c>
+      <c r="R8">
+        <v>3437619</v>
+      </c>
+      <c r="S8">
+        <v>235136</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B9">
-        <v>8089844</v>
+        <v>8165709</v>
       </c>
       <c r="C9">
-        <v>7656495</v>
+        <v>7323389</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>842320</v>
       </c>
       <c r="H9">
         <v>2007</v>
@@ -3427,16 +6719,39 @@
       <c r="L9">
         <v>-25</v>
       </c>
+      <c r="M9">
+        <v>2893</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>2007</v>
+      </c>
+      <c r="Q9">
+        <v>4082293</v>
+      </c>
+      <c r="R9">
+        <v>3459059</v>
+      </c>
+      <c r="S9">
+        <v>623234</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B10">
-        <v>6769509</v>
+        <v>8089844</v>
       </c>
       <c r="C10">
-        <v>5839813</v>
+        <v>7656495</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>433349</v>
       </c>
       <c r="H10">
         <v>2008</v>
@@ -3453,16 +6768,39 @@
       <c r="L10">
         <v>-270</v>
       </c>
+      <c r="M10">
+        <v>3391</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>2008</v>
+      </c>
+      <c r="Q10">
+        <v>3667959</v>
+      </c>
+      <c r="R10">
+        <v>3241892</v>
+      </c>
+      <c r="S10">
+        <v>426067</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B11">
-        <v>8757385</v>
+        <v>6769509</v>
       </c>
       <c r="C11">
-        <v>8073600</v>
+        <v>5839813</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>929696</v>
       </c>
       <c r="H11">
         <v>2009</v>
@@ -3479,16 +6817,39 @@
       <c r="L11">
         <v>-50</v>
       </c>
+      <c r="M11">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>2009</v>
+      </c>
+      <c r="Q11">
+        <v>3766608</v>
+      </c>
+      <c r="R11">
+        <v>2609718</v>
+      </c>
+      <c r="S11">
+        <v>1156890</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B12">
-        <v>9172423</v>
+        <v>8757385</v>
       </c>
       <c r="C12">
-        <v>8438760</v>
+        <v>8073600</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>683785</v>
       </c>
       <c r="H12">
         <v>2010</v>
@@ -3505,16 +6866,39 @@
       <c r="L12">
         <v>-49</v>
       </c>
+      <c r="M12">
+        <v>3835</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>2010</v>
+      </c>
+      <c r="Q12">
+        <v>4527041</v>
+      </c>
+      <c r="R12">
+        <v>3538043</v>
+      </c>
+      <c r="S12">
+        <v>988998</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B13">
-        <v>9037337</v>
+        <v>9172423</v>
       </c>
       <c r="C13">
-        <v>8185595</v>
+        <v>8438760</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>733663</v>
       </c>
       <c r="H13">
         <v>2011</v>
@@ -3531,16 +6915,39 @@
       <c r="L13">
         <v>-36</v>
       </c>
+      <c r="M13">
+        <v>388</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>2011</v>
+      </c>
+      <c r="Q13">
+        <v>4395856</v>
+      </c>
+      <c r="R13">
+        <v>3325175</v>
+      </c>
+      <c r="S13">
+        <v>1070681</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B14">
-        <v>9219045</v>
+        <v>9037337</v>
       </c>
       <c r="C14">
-        <v>8224322</v>
+        <v>8185595</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>851742</v>
       </c>
       <c r="H14">
         <v>2012</v>
@@ -3557,16 +6964,39 @@
       <c r="L14">
         <v>-24</v>
       </c>
+      <c r="M14">
+        <v>4048</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>2012</v>
+      </c>
+      <c r="Q14">
+        <v>4599678</v>
+      </c>
+      <c r="R14">
+        <v>3267488</v>
+      </c>
+      <c r="S14">
+        <v>1332190</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B15">
-        <v>9663422</v>
+        <v>9219045</v>
       </c>
       <c r="C15">
-        <v>8502862</v>
+        <v>8224322</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>994723</v>
       </c>
       <c r="H15">
         <v>2013</v>
@@ -3583,16 +7013,39 @@
       <c r="L15">
         <v>67</v>
       </c>
+      <c r="M15">
+        <v>2367</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>2013</v>
+      </c>
+      <c r="Q15">
+        <v>4994236</v>
+      </c>
+      <c r="R15">
+        <v>3427131</v>
+      </c>
+      <c r="S15">
+        <v>1567105</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B16">
-        <v>9013732</v>
+        <v>9663422</v>
       </c>
       <c r="C16">
-        <v>7488691</v>
+        <v>8502862</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1160560</v>
       </c>
       <c r="H16">
         <v>2014</v>
@@ -3609,16 +7062,39 @@
       <c r="L16">
         <v>-8</v>
       </c>
+      <c r="M16">
+        <v>2947</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>2014</v>
+      </c>
+      <c r="Q16">
+        <v>5602538</v>
+      </c>
+      <c r="R16">
+        <v>3639428</v>
+      </c>
+      <c r="S16">
+        <v>1963110</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B17">
-        <v>8997181</v>
+        <v>9013732</v>
       </c>
       <c r="C17">
-        <v>7385919</v>
+        <v>7488691</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1525041</v>
       </c>
       <c r="H17">
         <v>2015</v>
@@ -3635,16 +7111,39 @@
       <c r="L17">
         <v>-5</v>
       </c>
+      <c r="M17">
+        <v>7258</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>2015</v>
+      </c>
+      <c r="Q17">
+        <v>6221598</v>
+      </c>
+      <c r="R17">
+        <v>3732628</v>
+      </c>
+      <c r="S17">
+        <v>2488970</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B18">
-        <v>9605762</v>
+        <v>8997181</v>
       </c>
       <c r="C18">
-        <v>7834400</v>
+        <v>7385919</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1611262</v>
       </c>
       <c r="H18">
         <v>2016</v>
@@ -3661,16 +7160,39 @@
       <c r="L18">
         <v>-9</v>
       </c>
+      <c r="M18">
+        <v>-2060</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>2016</v>
+      </c>
+      <c r="Q18">
+        <v>6339620</v>
+      </c>
+      <c r="R18">
+        <v>3797566</v>
+      </c>
+      <c r="S18">
+        <v>2542054</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B19">
-        <v>10069089</v>
+        <v>9605762</v>
       </c>
       <c r="C19">
-        <v>8587123</v>
+        <v>7834400</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1771362</v>
       </c>
       <c r="H19">
         <v>2017</v>
@@ -3687,16 +7209,39 @@
       <c r="L19">
         <v>-12</v>
       </c>
+      <c r="M19">
+        <v>4433</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>2017</v>
+      </c>
+      <c r="Q19">
+        <v>6619639</v>
+      </c>
+      <c r="R19">
+        <v>3768727</v>
+      </c>
+      <c r="S19">
+        <v>2850912</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B20">
-        <v>10181945</v>
+        <v>10069089</v>
       </c>
       <c r="C20">
-        <v>8835408</v>
+        <v>8587123</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1481966</v>
       </c>
       <c r="H20">
         <v>2018</v>
@@ -3713,16 +7258,39 @@
       <c r="L20">
         <v>63</v>
       </c>
+      <c r="M20">
+        <v>493</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>2018</v>
+      </c>
+      <c r="Q20">
+        <v>6525812</v>
+      </c>
+      <c r="R20">
+        <v>4030119</v>
+      </c>
+      <c r="S20">
+        <v>2495693</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B21">
-        <v>10201196</v>
+        <v>10181945</v>
       </c>
       <c r="C21">
-        <v>8450916</v>
+        <v>8835408</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1346537</v>
       </c>
       <c r="H21">
         <v>2019</v>
@@ -3739,8 +7307,40 @@
       <c r="L21">
         <v>-3</v>
       </c>
+      <c r="M21">
+        <v>9054</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>2019</v>
+      </c>
+      <c r="Q21">
+        <v>6768288</v>
+      </c>
+      <c r="R21">
+        <v>4286996</v>
+      </c>
+      <c r="S21">
+        <v>2481292</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="B22">
+        <v>10201196</v>
+      </c>
+      <c r="C22">
+        <v>8450916</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>1750280</v>
+      </c>
       <c r="H22">
         <v>2020</v>
       </c>
@@ -3755,6 +7355,25 @@
       </c>
       <c r="L22">
         <v>-9</v>
+      </c>
+      <c r="M22">
+        <v>2583</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>2020</v>
+      </c>
+      <c r="Q22">
+        <v>8072468</v>
+      </c>
+      <c r="R22">
+        <v>4514371</v>
+      </c>
+      <c r="S22">
+        <v>3558097</v>
       </c>
     </row>
   </sheetData>

--- a/prin_econ/prin_econ_2/hw3/plot.xlsx
+++ b/prin_econ/prin_econ_2/hw3/plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\finance\prin_econ\prin_econ_2\hw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3938F7-8490-4DB3-BFCF-0F19E53A8958}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E75874-1D8B-428E-B45A-FA803B80D828}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{4E169C0D-DF73-40FE-B3F3-B5520EBCB85D}"/>
   </bookViews>
@@ -27,43 +27,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Export</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>Current Account</t>
-  </si>
-  <si>
-    <t>Financial Account</t>
-  </si>
-  <si>
-    <t>Prepare</t>
-  </si>
-  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Capital Account</t>
+    <t>經常帳</t>
   </si>
   <si>
-    <t>Gross National Saving</t>
+    <t>金融帳</t>
   </si>
   <si>
-    <t>Gross National Investment</t>
+    <t>資本帳</t>
   </si>
   <si>
-    <t>Excess Savings</t>
+    <t>國際收支帳總和</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>貿易順差</t>
   </si>
   <si>
-    <t>Trade Surplus</t>
+    <t>進口額</t>
   </si>
   <si>
-    <t>Error</t>
+    <t>出口額</t>
+  </si>
+  <si>
+    <t>國民儲蓄毛額</t>
+  </si>
+  <si>
+    <t>國內投資總額</t>
+  </si>
+  <si>
+    <t>超額儲蓄</t>
+  </si>
+  <si>
+    <t>準備與相關項目</t>
+  </si>
+  <si>
+    <t>誤差與遺漏淨額</t>
   </si>
 </sst>
 </file>
@@ -133,6 +133,38 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US">
+                <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+              </a:rPr>
+              <a:t>出口額、進口額、貿易順差</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -177,7 +209,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Export</c:v>
+                  <c:v>出口額</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -360,7 +392,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Import</c:v>
+                  <c:v>進口額</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -543,7 +575,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trade Surplus</c:v>
+                  <c:v>貿易順差</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -718,6 +750,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -737,6 +770,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -802,6 +890,78 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>NTD(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US">
+                    <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>百萬</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -837,6 +997,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -935,6 +1134,38 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US">
+                <a:latin typeface="Microsoft JhengHei Light" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="Microsoft JhengHei Light" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              </a:rPr>
+              <a:t>經常帳、金融帳、資本帳、準備與相關項目、國際收支帳總和</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Microsoft JhengHei Light" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="Microsoft JhengHei Light" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -979,7 +1210,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Current Account</c:v>
+                  <c:v>經常帳</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1168,7 +1399,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Financial Account</c:v>
+                  <c:v>金融帳</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1357,7 +1588,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Prepare</c:v>
+                  <c:v>準備與相關項目</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1546,7 +1777,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Capital Account</c:v>
+                  <c:v>資本帳</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1735,7 +1966,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>國際收支帳總和</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1915,6 +2146,123 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>誤差與遺漏淨額</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5817</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3647</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2593</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2893</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3835</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2947</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7258</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2060</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4433</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9054</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-389C-4E65-94F3-9EAC12CD9FF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1935,6 +2283,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Years</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2000,6 +2404,78 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>NTD(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US">
+                    <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>百萬</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2035,6 +2511,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2133,6 +2648,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>國民儲蓄毛額、國內投資總額、超額儲蓄</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2177,7 +2718,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gross National Saving</c:v>
+                  <c:v>國民儲蓄毛額</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2366,7 +2907,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gross National Investment</c:v>
+                  <c:v>國內投資總額</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2555,7 +3096,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Excess Savings</c:v>
+                  <c:v>超額儲蓄</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2755,6 +3296,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2820,6 +3416,78 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>NTD(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US">
+                    <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>百萬</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2855,6 +3523,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2953,6 +3660,38 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US">
+                <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+              </a:rPr>
+              <a:t>貿易順差、超額儲蓄</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2997,7 +3736,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trade Surplus</c:v>
+                  <c:v>貿易順差</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3183,7 +3922,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Excess Savings</c:v>
+                  <c:v>超額儲蓄</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3363,123 +4102,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Current Account</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$2:$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>8219</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17084</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24346</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28261</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17263</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14948</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23157</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32044</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24794</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40662</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36726</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37914</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42925</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>49937</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60607</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>72730</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>71222</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>83053</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>70843</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>65161</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>94836</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1160-49BD-B34A-EA59EE9067E4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3492,6 +4114,403 @@
         <c:smooth val="0"/>
         <c:axId val="2036898895"/>
         <c:axId val="1884342431"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>經常帳</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$2:$I$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>8219</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>17084</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>24346</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>28261</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>17263</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>14948</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>23157</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32044</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>24794</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40662</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>36726</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>37914</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>42925</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>49937</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>60607</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>72730</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>71222</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>83053</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>70843</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>65161</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>94836</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-1160-49BD-B34A-EA59EE9067E4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$Q$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>國民儲蓄毛額</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$Q$2:$Q$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>3005394</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2615801</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2909461</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3179723</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3356172</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3406311</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3672755</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4082293</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3667959</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3766608</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4527041</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4395856</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4599678</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4994236</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>5602538</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>6221598</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6339620</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>6619639</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>6525812</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>6768288</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>8072468</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-7EB0-4CEF-8150-1AB751894134}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$R$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>國內投資總額</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$R$2:$R$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>3394150</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2696826</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2740185</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2850858</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3333722</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3372419</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3437619</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3459059</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3241892</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2609718</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3538043</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3325175</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3267488</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3427131</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3639428</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3732628</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3797566</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3768727</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>4030119</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>4286996</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>4514371</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-7EB0-4CEF-8150-1AB751894134}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="2036898895"/>
@@ -3500,6 +4519,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3565,6 +4639,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW">
+                    <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>NTD(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US">
+                    <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>百萬</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW">
+                    <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="Microsoft JhengHei Light" panose="020B0304030504040204" pitchFamily="34" charset="-120"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3600,6 +4750,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5862,13 +7051,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>6348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>958321</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144990</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5895,16 +7084,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>39781</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1016142</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>68025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5931,16 +7120,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>558727</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1007564</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>9894</xdr:rowOff>
+      <xdr:rowOff>32485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>25327</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>175438</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>497447</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171127</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5967,16 +7156,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>328707</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>116292</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1045949</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>130977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>19923</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>58022</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>573630</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>160006</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6303,17 +7492,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F272BF-31EA-4F37-BE8F-89920861494F}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="62" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="O40" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T68" sqref="T68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
     <col min="9" max="9" width="16.7265625" customWidth="1"/>
     <col min="10" max="10" width="18.6328125" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" customWidth="1"/>
+    <col min="11" max="11" width="20.453125" customWidth="1"/>
     <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="18.90625" customWidth="1"/>
+    <col min="14" max="14" width="16.6328125" customWidth="1"/>
     <col min="17" max="17" width="18.7265625" customWidth="1"/>
     <col min="18" max="18" width="23.81640625" customWidth="1"/>
     <col min="19" max="19" width="17.90625" customWidth="1"/>
@@ -6321,40 +7512,40 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
         <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -6374,7 +7565,7 @@
         <v>2477</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>2228</v>
@@ -7378,6 +8569,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/prin_econ/prin_econ_2/hw3/plot.xlsx
+++ b/prin_econ/prin_econ_2/hw3/plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\finance\prin_econ\prin_econ_2\hw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E75874-1D8B-428E-B45A-FA803B80D828}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3BA22D-5EEF-4381-B43C-F1E0263D9913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{4E169C0D-DF73-40FE-B3F3-B5520EBCB85D}"/>
   </bookViews>
@@ -750,7 +750,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4253,7 +4252,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Q$1</c15:sqref>
@@ -4294,7 +4293,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Q$2:$Q$22</c15:sqref>
@@ -4371,7 +4370,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-7EB0-4CEF-8150-1AB751894134}"/>
                   </c:ext>
@@ -4384,7 +4383,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$1</c15:sqref>
@@ -4425,7 +4424,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$2:$R$22</c15:sqref>
@@ -4502,7 +4501,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-7EB0-4CEF-8150-1AB751894134}"/>
                   </c:ext>
@@ -7492,8 +7491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F272BF-31EA-4F37-BE8F-89920861494F}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O40" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T68" sqref="T68"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
